--- a/Documents/Test_case-Warfighters.xlsx
+++ b/Documents/Test_case-Warfighters.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adeli\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0044C01-F640-49D6-A94D-DD1E7C7A69E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,11 +20,11 @@
     <sheet name="Лист11" sheetId="11" r:id="rId11"/>
     <sheet name="Лист12" sheetId="12" r:id="rId12"/>
     <sheet name="Лист13" sheetId="14" r:id="rId13"/>
-    <sheet name="Usability" sheetId="13" r:id="rId14"/>
+    <sheet name="Итог" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -38,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="100">
   <si>
     <t>Даты тестирования</t>
   </si>
@@ -64,9 +58,6 @@
     <t>Шаги тестирования</t>
   </si>
   <si>
-    <t>1 Запустить проект</t>
-  </si>
-  <si>
     <t>Данные тестирования</t>
   </si>
   <si>
@@ -79,15 +70,9 @@
     <t>Средний</t>
   </si>
   <si>
-    <t>Необходимо проверить поиск отображаемых данных (персонажи, оружие и артефакты)</t>
-  </si>
-  <si>
     <t>Наличие локальной базы данных с данными</t>
   </si>
   <si>
-    <t>Приложение должно показывать введенные в поиске персонажи, оружие и артефакты</t>
-  </si>
-  <si>
     <t>Необходимо проверить что при нажатии на изображение выбранного оружия отобразится описание, основные характеристики и список персонажей (кому оно подходит)</t>
   </si>
   <si>
@@ -133,9 +118,6 @@
     <t>Мы войдем в админ панель</t>
   </si>
   <si>
-    <t>Поиск отображаемых данных</t>
-  </si>
-  <si>
     <t>Отображение информации об оружии</t>
   </si>
   <si>
@@ -181,12 +163,6 @@
     <t>При нажатии на кнопку "Проверить" выходит сообщение "Не все значения выбраны."</t>
   </si>
   <si>
-    <t>Калькулятор должен принимать допустимые значения и не выдавать исключений. На основе введенных данных должен рекомендовать персонажем, которым подходит данный артефакт</t>
-  </si>
-  <si>
-    <t>search_visible_data</t>
-  </si>
-  <si>
     <t>info_weapons</t>
   </si>
   <si>
@@ -215,45 +191,6 @@
   </si>
   <si>
     <t>calc_artefacts_correct_3</t>
-  </si>
-  <si>
-    <t>Дизайн</t>
-  </si>
-  <si>
-    <t>Функциональность</t>
-  </si>
-  <si>
-    <t>Удобство использования функций</t>
-  </si>
-  <si>
-    <t>Удобство навигации</t>
-  </si>
-  <si>
-    <t>Название проверки</t>
-  </si>
-  <si>
-    <t>Результат</t>
-  </si>
-  <si>
-    <t>Замечания и рекомендации</t>
-  </si>
-  <si>
-    <t>Отлично</t>
-  </si>
-  <si>
-    <t>Калькулятор можно было бы растянуть на всю страницу. Поиск обозначить.</t>
-  </si>
-  <si>
-    <t>Текстовое оформление и наполнение</t>
-  </si>
-  <si>
-    <t>Хорошо</t>
-  </si>
-  <si>
-    <t>Функционал хороший, но его мало.</t>
-  </si>
-  <si>
-    <t>Не интуитивно понятно, как работать с калькулятором.</t>
   </si>
   <si>
     <t>В текстовое поле можно вставить любые значения как положительные так и отрицательные и в любом обьеме</t>
@@ -336,13 +273,7 @@
 8 Ввести в поиск имя персонажа.</t>
   </si>
   <si>
-    <t>1 В поиске: "а"</t>
-  </si>
-  <si>
     <t>Поиск должен вывести персонажей, у которых имя начинается на букву "А".</t>
-  </si>
-  <si>
-    <t>Отобразились персонажи у которых имя начинается на букву "А". Если раннее нажималась кнопка "Очистить" и данные в калькуляторе пусты, поиск оставшихся персонажей работает некорректно</t>
   </si>
   <si>
     <t>1 Нажать на кнопку "Тир-лист".</t>
@@ -424,12 +355,76 @@
 3 Основная характеристика: "HP";
 7 Процент от силы атаки: "-99999999999999".</t>
   </si>
+  <si>
+    <t>visible_data</t>
+  </si>
+  <si>
+    <t>Необходимо проверить отображаемые данные (персонажи, оружие и артефакты)</t>
+  </si>
+  <si>
+    <t>Категория "Оружие"
+Категория "Артефакты"
+Категория "Персонажи"</t>
+  </si>
+  <si>
+    <t>1 Запустить проект
+2 Нажать на кнопку "Оружие"
+3 Нажать на кнопку "Артефакты"</t>
+  </si>
+  <si>
+    <t>Приложение должно показывать список персонажей, оружии и артефактов</t>
+  </si>
+  <si>
+    <t>Отображение данных</t>
+  </si>
+  <si>
+    <t>Категория "Оружие" 
+Оружие "Осквернённое желание"</t>
+  </si>
+  <si>
+    <t>Категория "Персонажи" 
+Персонаж "Венти"</t>
+  </si>
+  <si>
+    <t>Категория "Артефакты" 
+Артефакт "Конец гладиатора"</t>
+  </si>
+  <si>
+    <t>Калькулятор должен принимать допустимые значения и не выдавать исключений. На основе введенных данных должен рекомендовать персонажей, которым подходит данный артефакт</t>
+  </si>
+  <si>
+    <t>1 Сет артефактов: "Церемония древней";
+2 Категория артефакта: "Цветок жизни";
+3 Основная характеристика: "HP";
+4 Восст энергия %: "13";
+5 Мастерство стихий: "46";
+6 Шанс крит попадания %: "1".
+7 В поиске: "а"</t>
+  </si>
+  <si>
+    <t>Отобразились персонажи у которых имя содержит букву "А". Если раннее нажималась кнопка "Очистить" и данные в калькуляторе пусты, поиск оставшихся персонажей работает некорректно</t>
+  </si>
+  <si>
+    <t>Данных для тестирвоания нет</t>
+  </si>
+  <si>
+    <t>Общая информация по тестам</t>
+  </si>
+  <si>
+    <t>Успешные тесты</t>
+  </si>
+  <si>
+    <t>Провальные тесты</t>
+  </si>
+  <si>
+    <t>Всего тестов</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,20 +456,20 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -677,12 +672,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -700,10 +696,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -730,15 +729,15 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>83926</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>769619</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>373379</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Рисунок 1" descr="5240056789603575464.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -774,15 +773,15 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>181261</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>726050</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>329810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Рисунок 2" descr="5240056789603575470.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -826,7 +825,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3" descr="5240056789603575472.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,7 +874,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1" descr="5240056789603575482.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -924,7 +923,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1" descr="5240056789603575479.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -973,7 +972,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1" descr="5242587341384707585.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1015,14 +1014,14 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>592741</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>310845</xdr:rowOff>
+      <xdr:rowOff>112725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Рисунок 1" descr="5240056789603575471.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1063,15 +1062,15 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>337061</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>323235</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>757575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Рисунок 1" descr="5240056789603575466.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1120,7 +1119,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1" descr="5240056789603575473.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1162,14 +1161,14 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>130502</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>533141</xdr:rowOff>
+      <xdr:rowOff>243581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Рисунок 1" descr="5240056789603575477.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1213,7 +1212,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2" descr="5242587341384707554.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1254,15 +1253,15 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>166021</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>329564</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>131444</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Рисунок 1" descr="5240056789603575484.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1303,15 +1302,15 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>270591</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>986994</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1581354</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Рисунок 1" descr="5240056789603575485.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1352,15 +1351,15 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>102356</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>13669</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28909</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Рисунок 1" descr="5240056789603575475.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1409,7 +1408,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1" descr="5240056789603575480.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1481,7 +1480,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1533,7 +1532,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1727,27 +1726,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.77734375" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1755,93 +1754,93 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.6">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="31.2">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25"/>
-    </row>
-    <row r="5" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="24"/>
+    </row>
+    <row r="5" spans="1:2" ht="31.2">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="62.4">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="78">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="46.8">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="62.4">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="62.4">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
+      <c r="B10" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.6">
+      <c r="A11" s="23"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
+    <row r="12" spans="1:2" ht="15.6">
+      <c r="A12" s="23"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15.6">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15.6">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="15.6">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
@@ -1856,20 +1855,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="30.5546875" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1877,74 +1876,74 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25"/>
-    </row>
-    <row r="5" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="24"/>
+    </row>
+    <row r="5" spans="1:2" ht="31.2">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="46.8">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="218.4" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="218.4">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="187.2">
       <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="46.8">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="62.4">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1957,20 +1956,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.5546875" customWidth="1"/>
     <col min="2" max="2" width="45.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1978,74 +1977,74 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B3" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.2">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25"/>
-    </row>
-    <row r="5" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="24"/>
+    </row>
+    <row r="5" spans="1:2" ht="31.2">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="46.8">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="187.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="156" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="156">
       <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="31.2">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="46.8">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2058,20 +2057,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2079,74 +2078,74 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B3" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.2">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25"/>
-    </row>
-    <row r="5" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="24"/>
+    </row>
+    <row r="5" spans="1:2" ht="31.2">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="46.8">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="140.4" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="140.4">
       <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="46.8">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="46.8">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2159,20 +2158,20 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="45.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2180,74 +2179,74 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B3" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.2">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25"/>
-    </row>
-    <row r="5" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="24"/>
+    </row>
+    <row r="5" spans="1:2" ht="31.2">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="46.8">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="93.6">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="78">
       <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="31.2">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="46.8">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2260,119 +2259,72 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="2" max="2" width="36.77734375" customWidth="1"/>
-    <col min="3" max="3" width="66.88671875" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="20"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="20"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+    <row r="1" spans="1:2">
+      <c r="A1" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="28"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.77734375" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2380,93 +2332,93 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="31.2">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25"/>
-    </row>
-    <row r="5" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="24"/>
+    </row>
+    <row r="5" spans="1:2" ht="31.2">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="124.8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="124.8">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="62.4">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="46.8">
       <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="46.8">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" ht="31.2">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.6">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15.6">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15.6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15.6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15.6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
@@ -2480,20 +2432,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.77734375" customWidth="1"/>
     <col min="2" max="2" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2501,94 +2453,94 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.6" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25"/>
-    </row>
-    <row r="5" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="24"/>
+    </row>
+    <row r="5" spans="1:2" ht="31.2">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="184.8" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="31.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="31.2">
       <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="93.6">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="63" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:2" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="78" customHeight="1"/>
+    <row r="14" spans="1:2" ht="62.4" customHeight="1">
+      <c r="A14" s="23"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+    <row r="15" spans="1:2" ht="15.6">
+      <c r="A15" s="23"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="31.8" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15.6">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="15.6">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
@@ -2603,20 +2555,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.77734375" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2624,105 +2576,105 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.8" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="31.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25"/>
-    </row>
-    <row r="5" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="24"/>
+    </row>
+    <row r="5" spans="1:2" ht="31.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="109.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="31.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="31.2">
       <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="46.8">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="63" customHeight="1" thickBot="1">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="B10" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="78" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15.6">
       <c r="A12" s="14"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="63" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
+    <row r="14" spans="1:2" ht="15.6">
+      <c r="A14" s="23"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+    <row r="15" spans="1:2" ht="15.6">
+      <c r="A15" s="23"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="31.8" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="47.4" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="15.6">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
@@ -2737,21 +2689,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.77734375" style="17" customWidth="1"/>
     <col min="2" max="2" width="44.77734375" style="17" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2759,105 +2711,105 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.6">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="47.4" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="28"/>
-    </row>
-    <row r="5" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="27"/>
+    </row>
+    <row r="5" spans="1:2" ht="31.8" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="31.8" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="153" customHeight="1">
       <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="121.2" customHeight="1">
       <c r="A8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="85.2" customHeight="1">
+      <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="B9" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="50.4" customHeight="1">
+      <c r="A10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
-        <v>11</v>
-      </c>
       <c r="B10" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="78" customHeight="1">
       <c r="A11" s="19"/>
-      <c r="B11" s="23"/>
-    </row>
-    <row r="12" spans="1:2" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="20"/>
+    </row>
+    <row r="12" spans="1:2" ht="93" customHeight="1">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
     </row>
-    <row r="13" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="63" customHeight="1">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
     </row>
-    <row r="14" spans="1:2" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+    <row r="14" spans="1:2" ht="62.4" customHeight="1">
+      <c r="A14" s="26"/>
       <c r="B14" s="19"/>
     </row>
-    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+    <row r="15" spans="1:2" ht="15.6">
+      <c r="A15" s="26"/>
       <c r="B15" s="19"/>
     </row>
-    <row r="16" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="31.8" customHeight="1">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
     </row>
-    <row r="17" spans="1:2" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="47.4" customHeight="1">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
     </row>
-    <row r="18" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="31.8" customHeight="1">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
     </row>
@@ -2872,20 +2824,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.77734375" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2893,105 +2845,105 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B3" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.2">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25"/>
-    </row>
-    <row r="5" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="24"/>
+    </row>
+    <row r="5" spans="1:2" ht="31.2">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="46.8">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="140.4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="124.8">
       <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="31.2">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="31.2">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.6">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15.6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15.6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
+    <row r="14" spans="1:2" ht="15.6">
+      <c r="A14" s="23"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+    <row r="15" spans="1:2" ht="15.6">
+      <c r="A15" s="23"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15.6">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15.6">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="15.6">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
@@ -3006,20 +2958,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.5546875" customWidth="1"/>
     <col min="2" max="2" width="38.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3027,74 +2979,74 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B3" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.2">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25"/>
-    </row>
-    <row r="5" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="24"/>
+    </row>
+    <row r="5" spans="1:2" ht="31.2">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="46.8">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="124.8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="124.8">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="140.4">
       <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="31.2">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="93.6">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>91</v>
+      <c r="B10" s="21" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3107,20 +3059,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.77734375" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3128,74 +3080,74 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="31.2">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25"/>
-    </row>
-    <row r="5" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="24"/>
+    </row>
+    <row r="5" spans="1:2" ht="31.2">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="46.8">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="31.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.6">
       <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="93.6">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="62.4">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3208,20 +3160,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.77734375" customWidth="1"/>
     <col min="2" max="2" width="35.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3229,74 +3181,74 @@
         <v>45587</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="31.2">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25"/>
-    </row>
-    <row r="5" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="24"/>
+    </row>
+    <row r="5" spans="1:2" ht="31.2">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="62.4">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="31.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="31.2">
       <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.6">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.6">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
